--- a/BiMIP_Benchmark_Results.xlsx
+++ b/BiMIP_Benchmark_Results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="25">
   <si>
     <t>CaseName</t>
   </si>
@@ -82,6 +82,13 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>run_neos5_0_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SD_Gurobi Err: Master problem failed to solve in iter 2:
+Maximum iterations or time limit exceeded ] </t>
   </si>
 </sst>
 </file>
@@ -127,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -153,7 +160,7 @@
     <col min="18" max="18" width="15.7265625" customWidth="true"/>
     <col min="19" max="19" width="14.54296875" customWidth="true"/>
     <col min="20" max="20" width="14.54296875" customWidth="true"/>
-    <col min="21" max="21" width="15" customWidth="true"/>
+    <col min="21" max="21" width="47.08984375" customWidth="true"/>
     <col min="22" max="22" width="5.7265625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -357,6 +364,129 @@
       </c>
       <c r="V3" s="0"/>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>12.252418</v>
+      </c>
+      <c r="C4" s="0">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-41</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>16.111182899999999</v>
+      </c>
+      <c r="I4" s="0">
+        <v>3</v>
+      </c>
+      <c r="J4" s="0">
+        <v>-41</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>12.8742543</v>
+      </c>
+      <c r="O4" s="0">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0">
+        <v>-41</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
+        <v>12.979965399999999</v>
+      </c>
+      <c r="S4" s="0">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0">
+        <v>-41</v>
+      </c>
+      <c r="U4" s="0">
+        <v>0</v>
+      </c>
+      <c r="V4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0">
+        <v>10.236324400000001</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.625</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>9.2607025000000007</v>
+      </c>
+      <c r="H5" s="0">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0">
+        <v>39</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.625</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0">
+        <v>49.851918599999998</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0">
+        <v>39</v>
+      </c>
+      <c r="S5" s="0">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="T5" s="0">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>